--- a/DataParser/Monster.xlsx
+++ b/DataParser/Monster.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\DungeonBusters\DataParser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\KGA_DungeonBusters\DataParser\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,38 +50,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Blue_Slime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블루 슬라임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{0,0,1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Red_Slime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레드 슬라임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{1,1,1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skeleton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스켈레톤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{0,1,0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,26 +66,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>키메라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mimic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미믹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{0,0,1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chimera</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{2,0,0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,50 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mandragora</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만드라고라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Koblod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코볼트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basilisk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바실리스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mimic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미믹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미믹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dullahan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>듀라한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{1,0,0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,54 +102,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Poison_Slime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포이즌 슬라임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kerberos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>케르베로스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{0,0,2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skeleton_Warior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스켈레톤 워리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{1,0,0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mimic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{1,1,1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dragon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드래곤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{0,0,2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,6 +123,126 @@
   </si>
   <si>
     <t>Dungeon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorpling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorpion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fungi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorpion_King</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phantom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wraith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스콜피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버섯돌이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버섯둥이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전갈왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀래미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팬텀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그늘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +576,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -587,7 +587,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -616,10 +616,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -636,10 +636,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -656,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -668,10 +668,10 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -679,10 +679,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -691,10 +691,10 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -702,10 +702,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -728,10 +728,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -748,10 +748,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -760,10 +760,10 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -771,10 +771,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -783,7 +783,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -791,10 +791,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -803,10 +803,10 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -814,10 +814,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -826,13 +826,13 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -840,10 +840,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -860,10 +860,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -872,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -880,10 +880,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -892,10 +892,10 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -903,10 +903,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -915,10 +915,10 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -926,10 +926,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -938,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
